--- a/Document/动态规划.xlsx
+++ b/Document/动态规划.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DemoCode\leetCode\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A576D-EA10-4CE8-8F54-F034168CA073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF4B93C-98AC-45B7-ACE3-9C550EE614BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="背包问题" sheetId="1" r:id="rId1"/>
     <sheet name="编辑距离" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1350,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF52432-1051-415C-9350-E27713741149}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
       <selection activeCell="R436" sqref="R436"/>
     </sheetView>
   </sheetViews>
@@ -2157,4 +2158,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3E96E6-3037-41C5-A41C-6140AE40551D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/动态规划.xlsx
+++ b/Document/动态规划.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DemoCode\leetCode\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF4B93C-98AC-45B7-ACE3-9C550EE614BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAD940-B880-4D2B-8604-C796DFEAE33F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="背包问题" sheetId="1" r:id="rId1"/>
     <sheet name="编辑距离" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="97交错字符串" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,34 @@
       </rPr>
       <t>，选择的商品5，4，3</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3=aadbbcbcac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -221,6 +249,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2148,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF52432-1051-415C-9350-E27713741149}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+    <sheetView topLeftCell="A425" workbookViewId="0">
       <selection activeCell="R436" sqref="R436"/>
     </sheetView>
   </sheetViews>
@@ -2162,14 +2196,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3E96E6-3037-41C5-A41C-6140AE40551D}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
